--- a/final/MedianAnnualIncome.xlsx
+++ b/final/MedianAnnualIncome.xlsx
@@ -1,26 +1,100 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11014"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samojo/Desktop/project1team1/plotting/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E71838D3-79C3-7349-AC35-14DF12388FE6}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="2" r:id="rId1"/>
+    <sheet name="Overview" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <definedNames/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
+  <si>
+    <t>Statistic as Excel data file</t>
+  </si>
+  <si>
+    <t>Median annual family income in Canada from 2000 to 2016 (in Canadian dollar)</t>
+  </si>
+  <si>
+    <t>Access data</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>StatCan</t>
+  </si>
+  <si>
+    <t>Conducted by</t>
+  </si>
+  <si>
+    <t>Survey period</t>
+  </si>
+  <si>
+    <t>2000 to 2016</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Type of survey</t>
+  </si>
+  <si>
+    <t>n.a.</t>
+  </si>
+  <si>
+    <t>Number of respondents</t>
+  </si>
+  <si>
+    <t>Age group</t>
+  </si>
+  <si>
+    <t>Special characteristics</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Publication</t>
+  </si>
+  <si>
+    <t>Published by</t>
+  </si>
+  <si>
+    <t>Publication date</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t>Original source</t>
+  </si>
+  <si>
+    <t>statcan.gc.ca</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>465739</t>
+  </si>
+  <si>
+    <t>Median annual family income in Canada from 2000 to 2016</t>
+  </si>
+  <si>
+    <t>Median income in Canadian dollars</t>
+  </si>
   <si>
     <t>2000</t>
   </si>
@@ -71,39 +145,44 @@
   </si>
   <si>
     <t>2016</t>
-  </si>
-  <si>
-    <t>Years</t>
-  </si>
-  <si>
-    <t>Median income</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="177" formatCode="#,##0"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
+      <b/>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -118,45 +197,143 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
+      <protection/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
+      <protection/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Comma" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="Comma [0]" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="Currency" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Currency [0]" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal" xfId="0"/>
+    <cellStyle name="Percent" xfId="15"/>
+    <cellStyle name="Currency" xfId="16"/>
+    <cellStyle name="Currency [0]" xfId="17"/>
+    <cellStyle name="Comma" xfId="18"/>
+    <cellStyle name="Comma [0]" xfId="19"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -479,178 +656,318 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <dimension ref="B3:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O39" sqref="O39"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.7142857142857" customWidth="1"/>
+    <col min="3" max="3" width="70.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
+    <row r="3" ht="12.75">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" ht="12.75">
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" ht="12.75">
+      <c r="B5" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" ht="12.75">
+      <c r="B8" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="12.75">
+      <c r="B10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" ht="12.75">
+      <c r="B11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" ht="12.75">
+      <c r="B12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" ht="12.75">
+      <c r="B13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" ht="12.75">
+      <c r="B14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" ht="12.75">
+      <c r="B15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" ht="12.75">
+      <c r="B16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" ht="12.75">
+      <c r="B17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="12.75">
+      <c r="B18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" ht="12.75">
+      <c r="B20" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" ht="12.75">
+      <c r="B22" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C22" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" ht="12.75">
+      <c r="B23" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3">
+      <c r="C23" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" ht="12.75">
+      <c r="B24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" ht="12.75">
+      <c r="B25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B5" location="Data!A1" display="Access data"/>
+    <hyperlink ref="C25" r:id="rId1" display="465739"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <dimension ref="B3:D22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" topLeftCell="A1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="2" max="2" width="100.714285714286" customWidth="1"/>
+    <col min="3" max="3" width="30.1428571428571" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" ht="12.75">
+      <c r="B3" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" ht="12.75">
+      <c r="B4" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" ht="12.75">
+      <c r="C5" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="12.75">
+      <c r="B6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="9">
         <v>50800</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3">
+    <row r="7" spans="2:4" ht="12.75">
+      <c r="B7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="9">
         <v>53500</v>
       </c>
-      <c r="C3" s="4"/>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3">
+    </row>
+    <row r="8" spans="2:4" ht="12.75">
+      <c r="B8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="9">
         <v>55000</v>
       </c>
-      <c r="C4" s="4"/>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3">
+    </row>
+    <row r="9" spans="2:4" ht="12.75">
+      <c r="B9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="9">
         <v>56000</v>
       </c>
-      <c r="C5" s="4"/>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3">
+    </row>
+    <row r="10" spans="2:4" ht="12.75">
+      <c r="B10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="9">
         <v>58100</v>
       </c>
-      <c r="C6" s="4"/>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3">
+    </row>
+    <row r="11" spans="2:4" ht="12.75">
+      <c r="B11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="9">
         <v>60600</v>
       </c>
-      <c r="C7" s="4"/>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="3">
+    </row>
+    <row r="12" spans="2:4" ht="12.75">
+      <c r="B12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="9">
         <v>63600</v>
       </c>
-      <c r="C8" s="4"/>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="3">
+    </row>
+    <row r="13" spans="2:4" ht="12.75">
+      <c r="B13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="9">
         <v>66550</v>
       </c>
-      <c r="C9" s="4"/>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="3">
+    </row>
+    <row r="14" spans="2:4" ht="12.75">
+      <c r="B14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="9">
         <v>68860</v>
       </c>
-      <c r="C10" s="4"/>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="3">
+    </row>
+    <row r="15" spans="2:4" ht="12.75">
+      <c r="B15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="9">
         <v>68410</v>
       </c>
-      <c r="C11" s="4"/>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="3">
+    </row>
+    <row r="16" spans="2:4" ht="12.75">
+      <c r="B16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="9">
         <v>69860</v>
       </c>
-      <c r="C12" s="4"/>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="3">
+    </row>
+    <row r="17" spans="2:4" ht="12.75">
+      <c r="B17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="9">
         <v>72240</v>
       </c>
-      <c r="C13" s="4"/>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="3">
+    </row>
+    <row r="18" spans="2:4" ht="12.75">
+      <c r="B18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="9">
         <v>74540</v>
       </c>
-      <c r="C14" s="4"/>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="3">
+    </row>
+    <row r="19" spans="2:4" ht="12.75">
+      <c r="B19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="9">
         <v>76550</v>
       </c>
-      <c r="C15" s="4"/>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="3">
+    </row>
+    <row r="20" spans="2:4" ht="12.75">
+      <c r="B20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="9">
         <v>78870</v>
       </c>
-      <c r="C16" s="4"/>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="3">
+    </row>
+    <row r="21" spans="2:4" ht="12.75">
+      <c r="B21" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="9">
         <v>80940</v>
       </c>
-      <c r="C17" s="4"/>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="3">
+    </row>
+    <row r="22" spans="2:4" ht="12.75">
+      <c r="B22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="9">
         <v>82110</v>
       </c>
-      <c r="C18" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
